--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il5-Csf2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il5-Csf2rb.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.95299966666666</v>
+        <v>3.080253</v>
       </c>
       <c r="N2">
-        <v>167.858999</v>
+        <v>9.240759000000001</v>
       </c>
       <c r="O2">
-        <v>0.9972044839870586</v>
+        <v>0.9515444181830145</v>
       </c>
       <c r="P2">
-        <v>0.9972044839870585</v>
+        <v>0.9515444181830145</v>
       </c>
       <c r="Q2">
-        <v>26.85301955302633</v>
+        <v>1.478278100013</v>
       </c>
       <c r="R2">
-        <v>241.677175977237</v>
+        <v>13.304502900117</v>
       </c>
       <c r="S2">
-        <v>0.9972044839870586</v>
+        <v>0.9515444181830145</v>
       </c>
       <c r="T2">
-        <v>0.9972044839870585</v>
+        <v>0.9515444181830145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>0.027778</v>
       </c>
       <c r="O3">
-        <v>0.0001650215140160136</v>
+        <v>0.002860371193349785</v>
       </c>
       <c r="P3">
-        <v>0.0001650215140160136</v>
+        <v>0.002860371193349786</v>
       </c>
       <c r="Q3">
-        <v>0.004443748512666666</v>
+        <v>0.004443748512666667</v>
       </c>
       <c r="R3">
-        <v>0.03999373661399999</v>
+        <v>0.03999373661400001</v>
       </c>
       <c r="S3">
-        <v>0.0001650215140160136</v>
+        <v>0.002860371193349785</v>
       </c>
       <c r="T3">
-        <v>0.0001650215140160136</v>
+        <v>0.002860371193349786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>0.44279</v>
       </c>
       <c r="O4">
-        <v>0.002630494498925433</v>
+        <v>0.04559521062363567</v>
       </c>
       <c r="P4">
-        <v>0.002630494498925432</v>
+        <v>0.04559521062363567</v>
       </c>
       <c r="Q4">
         <v>0.07083473986333334</v>
       </c>
       <c r="R4">
-        <v>0.63751265877</v>
+        <v>0.6375126587700001</v>
       </c>
       <c r="S4">
-        <v>0.002630494498925433</v>
+        <v>0.04559521062363567</v>
       </c>
       <c r="T4">
-        <v>0.002630494498925432</v>
+        <v>0.04559521062363567</v>
       </c>
     </row>
   </sheetData>
